--- a/biology/Médecine/Laura_Rodríguez_Dulanto/Laura_Rodríguez_Dulanto.xlsx
+++ b/biology/Médecine/Laura_Rodríguez_Dulanto/Laura_Rodríguez_Dulanto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laura_Rodr%C3%ADguez_Dulanto</t>
+          <t>Laura_Rodríguez_Dulanto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laura Rodríguez Dulanto (née le 18 octobre 1872 et morte le 6 juillet 1919) est une médecin péruvienne. Elle est la première femme à obtenir le titre de docteure en médecine au Pérou. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laura_Rodr%C3%ADguez_Dulanto</t>
+          <t>Laura_Rodríguez_Dulanto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issue d’une famille modeste où elle est la seule fille de sa fratrie, elle fréquente l’école primaire, puis doit faire face à l’absence d’école secondaire pour filles ; c’est son frère, Abraham, qui lui fournit le contenu des cours auxquel il a accès[1]. Elle valide son cursus en candidate libre, auprès d’un jury, puis se prépare à l’entrée à l’université : en 1892, elle est la première femme du Pérou à y être admise[1]. Son frère suit également les cours de médecine ; par son entremise, elle parvient à contourner les limitations auxquelles elle est confrontée en tant que femme : elle ne peut pas faire de dissection dans la même pièce que les étudiants masculins, par exemple[1].
-Elle est diplômée en sciences naturelles en 1898, puis deux ans plus tard en chirurgie[2]. Laura Rodríguez Dulanto est la première femme du Pérou à prêter le serment d’Hippocrate[1]. Elle s’oriente ensuite vers la pratique de la gynécologie et de l’obstétrique[3]. Par la suite, elle se consacre entre autres à l’enseignement au sein d’une école d’infirmerie ; lors de conflits entre le Pérou et l’Équateur, elle fonde l’Union patriotique des femmes et procure du matériel aux hôpitaux militaires[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issue d’une famille modeste où elle est la seule fille de sa fratrie, elle fréquente l’école primaire, puis doit faire face à l’absence d’école secondaire pour filles ; c’est son frère, Abraham, qui lui fournit le contenu des cours auxquel il a accès. Elle valide son cursus en candidate libre, auprès d’un jury, puis se prépare à l’entrée à l’université : en 1892, elle est la première femme du Pérou à y être admise. Son frère suit également les cours de médecine ; par son entremise, elle parvient à contourner les limitations auxquelles elle est confrontée en tant que femme : elle ne peut pas faire de dissection dans la même pièce que les étudiants masculins, par exemple.
+Elle est diplômée en sciences naturelles en 1898, puis deux ans plus tard en chirurgie. Laura Rodríguez Dulanto est la première femme du Pérou à prêter le serment d’Hippocrate. Elle s’oriente ensuite vers la pratique de la gynécologie et de l’obstétrique. Par la suite, elle se consacre entre autres à l’enseignement au sein d’une école d’infirmerie ; lors de conflits entre le Pérou et l’Équateur, elle fonde l’Union patriotique des femmes et procure du matériel aux hôpitaux militaires.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laura_Rodr%C3%ADguez_Dulanto</t>
+          <t>Laura_Rodríguez_Dulanto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1972 est érigé un buste en son honneur dans le parc de l’histoire de la médecine péruvienne, à Lima[5]. L’hôpital de son lieu de naissance porte aussi désormais son nom[5].
-Google lui consacre un doodle pour le 146e anniversaire de sa naissance[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1972 est érigé un buste en son honneur dans le parc de l’histoire de la médecine péruvienne, à Lima. L’hôpital de son lieu de naissance porte aussi désormais son nom.
+Google lui consacre un doodle pour le 146e anniversaire de sa naissance.
 </t>
         </is>
       </c>
